--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haradayoshiaki/Resarch/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{1A72487A-66B7-5C40-B0DA-44E512ED3AF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{4ED7E113-DA55-CF4C-A6C0-9FE29FDB872B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00C1205D-5761-134F-B5DA-437C0AE91BD4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{FDED6723-5AE8-564A-A8EC-5C0DC9534402}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Payment_x000a_Profit_x000a__x000a_Requester_x000a_Payme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,138 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
-    <t>目的関数値</t>
-    <rPh sb="0" eb="2">
-      <t>モクテk</t>
-    </rPh>
+    <t>Provider</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>支払い価格</t>
-    <rPh sb="0" eb="2">
-      <t>シハラ</t>
-    </rPh>
+    <t>Payment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利益</t>
-    <rPh sb="0" eb="2">
-      <t>リエk</t>
-    </rPh>
+    <t>Profit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企業群A</t>
-    <rPh sb="0" eb="2">
-      <t>キギョ</t>
-    </rPh>
+    <t>Requester</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勝者となった入札数</t>
-    <rPh sb="0" eb="2">
-      <t>ショウsy</t>
-    </rPh>
+    <t>TotalCost</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企業群B</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
+    <t>TotalProfit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平均</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分散</t>
-    <rPh sb="0" eb="2">
-      <t>ブンサn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受け取った収入</t>
-    <rPh sb="0" eb="1">
-      <t>ウk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業0</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業1</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業2</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業3</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業4</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業5</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業6</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業7</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業8</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業9</t>
-    <rPh sb="0" eb="1">
-      <t>キギョ</t>
-    </rPh>
+    <t>ProMax</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -165,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +74,25 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HiraginoSans-W3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HiraginoSans-W3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HiraginoSans-W3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,27 +102,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -221,14 +120,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,211 +442,511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9E8634-EC4D-F54D-8EF7-C90B13EDE819}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EE08F-E219-5949-8C2B-C77F93CE59CA}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>259.11</v>
-      </c>
-      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>175</v>
+      </c>
+      <c r="C2">
+        <v>127.5</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>97.5</v>
+      </c>
+      <c r="D3">
+        <v>175</v>
+      </c>
+      <c r="E3">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="D1">
-        <v>127.80400000000009</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B3:E3)+SUM(B7:I7)</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1"/>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>187.5</v>
+      </c>
+      <c r="C14">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>187.5</v>
+      </c>
+      <c r="E14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>162.5</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>162.5</v>
+      </c>
+      <c r="E15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>127.80400000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>110</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>110</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>95</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.98</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.581656740743469</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9.537399999999991</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.116795540294548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="B21" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.57</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.0762399658381669</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.2861428571428544</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.4560909376237636</v>
+      <c r="B22">
+        <f>SUM(B15:E15)+SUM(B19:I19)</f>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8533BE-98B4-8646-9BC2-AB21DBED7AD0}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435F2083-8B61-7245-BF3F-0CE1D5848685}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>187.5</v>
+      </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2">
+        <v>187.5</v>
+      </c>
+      <c r="E2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>162.5</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>162.5</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>8.9970000000000141</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10.134000000000015</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.134000000000015</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10.134000000000015</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10.134000000000015</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10.134000000000015</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10.134000000000015</v>
-      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>105</v>
+      </c>
+      <c r="H6">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
